--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_DLTruc.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_DLTruc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="38" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -688,6 +688,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -705,30 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1072,43 +1072,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1153,58 +1153,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1229,23 +1229,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1580,7 +1580,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2898,13 +2898,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2916,6 +2909,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2926,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2959,43 +2959,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3040,58 +3040,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3116,23 +3116,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3186,7 +3186,7 @@
         <v>77</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3217,7 +3217,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3275,7 +3275,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3393,7 +3393,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4711,6 +4711,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4722,13 +4729,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4739,8 +4739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4772,43 +4772,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4853,58 +4853,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4929,49 +4929,77 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
+      <c r="B6" s="63">
+        <v>44630</v>
+      </c>
+      <c r="C6" s="63">
+        <v>44631</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="38">
+        <v>868183038484270</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4983,26 +5011,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="63">
+        <v>44630</v>
+      </c>
+      <c r="C7" s="63">
+        <v>44631</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868183033816385</v>
+      </c>
       <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5012,26 +5066,50 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="12"/>
+      <c r="B8" s="63">
+        <v>44630</v>
+      </c>
+      <c r="C8" s="63">
+        <v>44631</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868183037844169</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="I8" s="54"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5041,26 +5119,50 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="1"/>
+      <c r="B9" s="63">
+        <v>44630</v>
+      </c>
+      <c r="C9" s="63">
+        <v>44631</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183037854929</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="48"/>
+      <c r="J9" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5070,26 +5172,54 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="63">
+        <v>44630</v>
+      </c>
+      <c r="C10" s="63">
+        <v>44631</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="38">
+        <v>868926033906048</v>
+      </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="54"/>
+      <c r="I10" s="54" t="s">
+        <v>74</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="K10" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
+      <c r="O10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="T10" s="41"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5118,7 +5248,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5147,7 +5277,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5178,7 +5308,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5207,7 +5337,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5236,7 +5366,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5265,7 +5395,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5384,7 +5514,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -5448,7 +5578,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -5853,7 +5983,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -5885,7 +6015,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -5917,7 +6047,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6035,7 +6165,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -6496,13 +6626,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6514,6 +6637,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
